--- a/biology/Botanique/Columbia_(poire)/Columbia_(poire).xlsx
+++ b/biology/Botanique/Columbia_(poire)/Columbia_(poire).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Columbia est une variété ancienne de poire.
 </t>
@@ -511,12 +523,14 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Columbia virgalouse,
 Columbia virgouleuse,
 Columbian virgalieu,
-Columbia virgalica[1]
+Columbia virgalica
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Avant 1818, aux États-Unis, le plant original a été trouvé sur la ferme de M. Casser dans le Comté de Westchester, 20 km à côté de New York[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avant 1818, aux États-Unis, le plant original a été trouvé sur la ferme de M. Casser dans le Comté de Westchester, 20 km à côté de New York.
 </t>
         </is>
       </c>
@@ -576,10 +592,12 @@
           <t>Arbre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le bois est fort, avec des rameaux nombreux, généralement érigés, gros courts, très géniculés, brun verdâtre nuancé de rouge auprès des yeux, ayant des lenticelles petites abondantes, les coussinets saillants et les mérithalles des plus courts. Les yeux sont volumineux, coniques, aigus, très écartés de l'écorce et à écailles disjointes. Les feuilles vert clair, souvent lavées de rouge et jaune sont ovales allongées, irrégulièrement dentées ou crénelées, portées par un pétiole grêle et très long[1]. 
-La fertilité de Columbia est très grande. On le greffe sur franc ou sur cognassier[1],[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bois est fort, avec des rameaux nombreux, généralement érigés, gros courts, très géniculés, brun verdâtre nuancé de rouge auprès des yeux, ayant des lenticelles petites abondantes, les coussinets saillants et les mérithalles des plus courts. Les yeux sont volumineux, coniques, aigus, très écartés de l'écorce et à écailles disjointes. Les feuilles vert clair, souvent lavées de rouge et jaune sont ovales allongées, irrégulièrement dentées ou crénelées, portées par un pétiole grêle et très long. 
+La fertilité de Columbia est très grande. On le greffe sur franc ou sur cognassier,.
 </t>
         </is>
       </c>
@@ -608,9 +626,11 @@
           <t>Fruit</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">De grosseur considérable, il est blanc, ferme, granuleux, plutôt dur, très juteux, sucré, aromatique et de 1re qualité[3],[Note 1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De grosseur considérable, il est blanc, ferme, granuleux, plutôt dur, très juteux, sucré, aromatique et de 1re qualité,[Note 1].
 </t>
         </is>
       </c>
